--- a/biology/Zoologie/Bolitoglossa_oaxacensis/Bolitoglossa_oaxacensis.xlsx
+++ b/biology/Zoologie/Bolitoglossa_oaxacensis/Bolitoglossa_oaxacensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa oaxacensis est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa oaxacensis est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud de l'État d'Oaxaca au Mexique. Elle se rencontre entre 1 800 et 1 920 m d'altitude dans la Sierra Madre del Sur[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud de l'État d'Oaxaca au Mexique. Elle se rencontre entre 1 800 et 1 920 m d'altitude dans la Sierra Madre del Sur,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 44,3 à 49,3 mm et les femelles de 50,8 à 55,8 mm[3]. Son dos est brun-roux foncé et présente parfois des taches rougeâtres ou jaunâtres. Ses flancs sont tachés de jaune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 44,3 à 49,3 mm et les femelles de 50,8 à 55,8 mm. Son dos est brun-roux foncé et présente parfois des taches rougeâtres ou jaunâtres. Ses flancs sont tachés de jaune.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de oaxac[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'État d'Oaxaca.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Parra-Olea, García-París &amp; Wake, 2002 : Phylogenetic relationships among the salamanders of the Bolitoglossa macrinii species group (Amphibia: Plethodontidae), with descriptions of two new species from Oaxaca (Mexico). Journal of Herpetology, vol. 36, no 3, p. 356-366 (texte intégral).</t>
         </is>
